--- a/data/(3,2)/degree+distance/summary_by_file_odd_even_general.xlsx
+++ b/data/(3,2)/degree+distance/summary_by_file_odd_even_general.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/2-1/Project/data/(3^J2)/degree^Mdistance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/Project/data/(3^J2)/degree^Mdistance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_0F95F0A0D370582E8FF93111595ED87656CC76AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB37976-4739-4323-9CE6-F21EE3CD6743}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0F95F0A0D390D86AAFD83211595ED87656CC76AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BDA0F7-07D3-44DB-8B00-9F5865088678}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C200"/>
     </sheetView>
   </sheetViews>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4.97</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.24</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>13.49</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>13.33</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>20.47</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.28999999999999998</v>
+        <v>31.2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>24.52</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>23.15</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>22.55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>45.05</v>
       </c>
       <c r="D15">
         <v>0.01</v>
@@ -752,7 +752,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.09</v>
+        <v>37.58</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.02</v>
+        <v>44.28</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>51.03</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>44.43</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>58.07</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.23</v>
+        <v>68.56</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.23</v>
+        <v>79.89</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.02</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.14000000000000001</v>
+        <v>80.010000000000005</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.13</v>
+        <v>90.4</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>100.97</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.38</v>
+        <v>103.52</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.16</v>
+        <v>100.32</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.33</v>
+        <v>113.08</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.43</v>
+        <v>125.79</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.26</v>
+        <v>111.89</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.39</v>
+        <v>142.79</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.49</v>
+        <v>148.43</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.31</v>
+        <v>149.04</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.45</v>
+        <v>148.6</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.47</v>
+        <v>149.41999999999999</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.35</v>
+        <v>146.85</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.64</v>
+        <v>203.74</v>
       </c>
       <c r="D38">
         <v>0.01</v>
@@ -1245,7 +1245,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>0.48</v>
+        <v>216.44</v>
       </c>
       <c r="D39">
         <v>0.01</v>
@@ -1268,7 +1268,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>0.46</v>
+        <v>197.01</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>0.4</v>
+        <v>205.32</v>
       </c>
       <c r="D41">
         <v>0.01</v>
@@ -1311,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>0.54</v>
+        <v>207.1</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>0.39</v>
+        <v>209.83</v>
       </c>
       <c r="D43">
         <v>0.02</v>
@@ -1354,7 +1354,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>0.52</v>
+        <v>246.69</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>0.56000000000000005</v>
+        <v>242.01</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>0.54</v>
+        <v>267.81</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>0.41</v>
+        <v>233.12</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>0.62</v>
+        <v>269.18</v>
       </c>
       <c r="D48">
         <v>0.01</v>
@@ -1460,7 +1460,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>0.28999999999999998</v>
+        <v>224.24</v>
       </c>
       <c r="D49">
         <v>0.01</v>
@@ -1483,7 +1483,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>0.56999999999999995</v>
+        <v>289.83999999999997</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>0.69</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>0.56999999999999995</v>
+        <v>307.79000000000002</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>0.45</v>
+        <v>308.01</v>
       </c>
       <c r="D53">
         <v>0.02</v>
@@ -1569,7 +1569,7 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>0.66</v>
+        <v>339.38</v>
       </c>
       <c r="D54">
         <v>0.01</v>
@@ -1589,7 +1589,7 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>0.34</v>
+        <v>252.66</v>
       </c>
       <c r="D55">
         <v>0.01</v>
@@ -1612,7 +1612,7 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>0.65</v>
+        <v>363.18</v>
       </c>
       <c r="D56">
         <v>0.01</v>
@@ -1632,7 +1632,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>0.6</v>
+        <v>382.76</v>
       </c>
       <c r="D57">
         <v>0.03</v>
@@ -1655,7 +1655,7 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>0.55000000000000004</v>
+        <v>354.85</v>
       </c>
       <c r="D58">
         <v>0.01</v>
@@ -1675,7 +1675,7 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>0.45</v>
+        <v>324.52999999999997</v>
       </c>
       <c r="D59">
         <v>0.02</v>
@@ -1698,7 +1698,7 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>0.56000000000000005</v>
+        <v>383.55</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>0.43</v>
+        <v>316.57</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>0.63</v>
+        <v>399.47</v>
       </c>
       <c r="D62">
         <v>0.01</v>
@@ -1761,7 +1761,7 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>0.64</v>
+        <v>441.83</v>
       </c>
       <c r="D63">
         <v>0.01</v>
@@ -1784,7 +1784,7 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>0.51</v>
+        <v>404.87</v>
       </c>
       <c r="D64">
         <v>0.01</v>
@@ -1804,7 +1804,7 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>0.48</v>
+        <v>393.9</v>
       </c>
       <c r="D65">
         <v>0.02</v>
@@ -1827,7 +1827,7 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>0.57999999999999996</v>
+        <v>474.77</v>
       </c>
       <c r="D66">
         <v>0.04</v>
@@ -1847,7 +1847,7 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>0.28000000000000003</v>
+        <v>332.48</v>
       </c>
       <c r="D67">
         <v>0.03</v>
@@ -1870,7 +1870,7 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>0.64</v>
+        <v>483.05</v>
       </c>
       <c r="D68">
         <v>0.01</v>
@@ -1890,7 +1890,7 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>0.66</v>
+        <v>487.62</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>0.67</v>
+        <v>511.31</v>
       </c>
       <c r="D70">
         <v>0.02</v>
@@ -1933,7 +1933,7 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>0.46</v>
+        <v>433.95</v>
       </c>
       <c r="D71">
         <v>0.01</v>
@@ -1956,7 +1956,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>0.6</v>
+        <v>549.16</v>
       </c>
       <c r="D72">
         <v>0.05</v>
@@ -1976,7 +1976,7 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>0.4</v>
+        <v>420.45</v>
       </c>
       <c r="D73">
         <v>0.02</v>
@@ -1999,7 +1999,7 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>0.61</v>
+        <v>589.97</v>
       </c>
       <c r="D74">
         <v>0.08</v>
@@ -2019,7 +2019,7 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>0.63</v>
+        <v>603.07000000000005</v>
       </c>
       <c r="D75">
         <v>0.03</v>
@@ -2042,7 +2042,7 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>0.48</v>
+        <v>586.34</v>
       </c>
       <c r="D76">
         <v>0.06</v>
@@ -2062,7 +2062,7 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>0.46</v>
+        <v>535.67999999999995</v>
       </c>
       <c r="D77">
         <v>0.05</v>
@@ -2085,7 +2085,7 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>0.65</v>
+        <v>624.66</v>
       </c>
       <c r="D78">
         <v>0.04</v>
@@ -2105,7 +2105,7 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>0.37</v>
+        <v>396.29</v>
       </c>
       <c r="D79">
         <v>0.04</v>
@@ -2128,7 +2128,7 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>0.55000000000000004</v>
+        <v>616.79</v>
       </c>
       <c r="D80">
         <v>0.02</v>
@@ -2148,7 +2148,7 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>0.63</v>
+        <v>694.35</v>
       </c>
       <c r="D81">
         <v>0.08</v>
@@ -2171,7 +2171,7 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>0.56000000000000005</v>
+        <v>661.29</v>
       </c>
       <c r="D82">
         <v>0.06</v>
@@ -2191,7 +2191,7 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>0.4</v>
+        <v>485.01</v>
       </c>
       <c r="D83">
         <v>0.02</v>
@@ -2214,7 +2214,7 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>0.67</v>
+        <v>834.18</v>
       </c>
       <c r="D84">
         <v>0.22</v>
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>0.5</v>
+        <v>622.4</v>
       </c>
       <c r="D85">
         <v>0.11</v>
@@ -2257,7 +2257,7 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>0.61</v>
+        <v>695.89</v>
       </c>
       <c r="D86">
         <v>0.05</v>
@@ -2277,7 +2277,7 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>0.64</v>
+        <v>788.78</v>
       </c>
       <c r="D87">
         <v>0.1</v>
@@ -2300,7 +2300,7 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>0.54</v>
+        <v>721.72</v>
       </c>
       <c r="D88">
         <v>0.1</v>
@@ -2320,7 +2320,7 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>0.52</v>
+        <v>681.08</v>
       </c>
       <c r="D89">
         <v>0.06</v>
@@ -2343,7 +2343,7 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>0.71</v>
+        <v>848.41</v>
       </c>
       <c r="D90">
         <v>0.17</v>
@@ -2363,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>0.32</v>
+        <v>517.74</v>
       </c>
       <c r="D91">
         <v>0.04</v>
@@ -2386,7 +2386,7 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>0.64</v>
+        <v>868.15</v>
       </c>
       <c r="D92">
         <v>0.15</v>
@@ -2406,7 +2406,7 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>0.6</v>
+        <v>830.9</v>
       </c>
       <c r="D93">
         <v>0.09</v>
@@ -2429,7 +2429,7 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>0.49</v>
+        <v>811.89</v>
       </c>
       <c r="D94">
         <v>0.17</v>
@@ -2449,7 +2449,7 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>0.48</v>
+        <v>753.81</v>
       </c>
       <c r="D95">
         <v>0.16</v>
@@ -2472,7 +2472,7 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>0.65</v>
+        <v>836.71</v>
       </c>
       <c r="D96">
         <v>0.14000000000000001</v>
@@ -2492,7 +2492,7 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>0.38</v>
+        <v>638.53</v>
       </c>
       <c r="D97">
         <v>0.1</v>
@@ -2515,7 +2515,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>0.52</v>
+        <v>868.1</v>
       </c>
       <c r="D98">
         <v>0.18</v>
@@ -2535,7 +2535,7 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>0.6</v>
+        <v>931.37</v>
       </c>
       <c r="D99">
         <v>0.22</v>
@@ -2558,7 +2558,7 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>0.56000000000000005</v>
+        <v>860.92</v>
       </c>
       <c r="D100">
         <v>0.21</v>
@@ -2578,7 +2578,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.49</v>
+        <v>804.72</v>
       </c>
       <c r="D101">
         <v>0.17</v>
@@ -2601,7 +2601,7 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>0.64646464646464652</v>
+        <v>949.73737373737379</v>
       </c>
       <c r="D102">
         <v>0.1616161616161616</v>
@@ -2621,7 +2621,7 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>0.33</v>
+        <v>634.08000000000004</v>
       </c>
       <c r="D103">
         <v>0.17</v>
@@ -2644,7 +2644,7 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>0.53</v>
+        <v>989.47</v>
       </c>
       <c r="D104">
         <v>0.25</v>
@@ -2664,7 +2664,7 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>0.64</v>
+        <v>1071.74</v>
       </c>
       <c r="D105">
         <v>0.32</v>
@@ -2687,7 +2687,7 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>0.56999999999999995</v>
+        <v>966.12</v>
       </c>
       <c r="D106">
         <v>0.43</v>
@@ -2707,7 +2707,7 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>0.46</v>
+        <v>750.27</v>
       </c>
       <c r="D107">
         <v>0.24</v>
@@ -2730,7 +2730,7 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>0.57999999999999996</v>
+        <v>1150.71</v>
       </c>
       <c r="D108">
         <v>0.77</v>
@@ -2750,7 +2750,7 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>0.49</v>
+        <v>904.87</v>
       </c>
       <c r="D109">
         <v>0.73</v>
@@ -2773,7 +2773,7 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>0.59</v>
+        <v>1071.6600000000001</v>
       </c>
       <c r="D110">
         <v>0.88</v>
@@ -2793,7 +2793,7 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>0.65</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="D111">
         <v>1.06</v>
@@ -2816,7 +2816,7 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>0.49</v>
+        <v>1007.08</v>
       </c>
       <c r="D112">
         <v>0.83</v>
@@ -2836,7 +2836,7 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>0.47</v>
+        <v>909.79</v>
       </c>
       <c r="D113">
         <v>0.72</v>
@@ -2859,7 +2859,7 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>0.7</v>
+        <v>1225.57</v>
       </c>
       <c r="D114">
         <v>1.02</v>
@@ -2879,7 +2879,7 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>0.37</v>
+        <v>782.05</v>
       </c>
       <c r="D115">
         <v>0.56000000000000005</v>
@@ -2902,7 +2902,7 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>0.55000000000000004</v>
+        <v>1249.53</v>
       </c>
       <c r="D116">
         <v>0.98</v>
@@ -2922,7 +2922,7 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>0.67</v>
+        <v>1340.81</v>
       </c>
       <c r="D117">
         <v>1.1100000000000001</v>
@@ -2945,7 +2945,7 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>0.59</v>
+        <v>1284.1300000000001</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2965,7 +2965,7 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>0.53</v>
+        <v>1139.3699999999999</v>
       </c>
       <c r="D119">
         <v>0.89</v>
@@ -2988,7 +2988,7 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>0.57999999999999996</v>
+        <v>1225.07</v>
       </c>
       <c r="D120">
         <v>0.94</v>
@@ -3008,7 +3008,7 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>0.49</v>
+        <v>1139.45</v>
       </c>
       <c r="D121">
         <v>0.84</v>
@@ -3031,7 +3031,7 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>0.6</v>
+        <v>1300.0999999999999</v>
       </c>
       <c r="D122">
         <v>0.96</v>
@@ -3051,7 +3051,7 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>0.65</v>
+        <v>1378.89</v>
       </c>
       <c r="D123">
         <v>1.05</v>
@@ -3074,7 +3074,7 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>0.66</v>
+        <v>1305.82</v>
       </c>
       <c r="D124">
         <v>0.97</v>
@@ -3094,7 +3094,7 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>0.5</v>
+        <v>1155.95</v>
       </c>
       <c r="D125">
         <v>0.84</v>
@@ -3117,7 +3117,7 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>0.61</v>
+        <v>1400.26</v>
       </c>
       <c r="D126">
         <v>1.02</v>
@@ -3137,7 +3137,7 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>0.32</v>
+        <v>908.06</v>
       </c>
       <c r="D127">
         <v>0.57999999999999996</v>
@@ -3160,7 +3160,7 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>0.63</v>
+        <v>1460.84</v>
       </c>
       <c r="D128">
         <v>1.06</v>
@@ -3180,7 +3180,7 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>0.67</v>
+        <v>1531.6</v>
       </c>
       <c r="D129">
         <v>1.1299999999999999</v>
@@ -3203,7 +3203,7 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>0.48</v>
+        <v>1280.33</v>
       </c>
       <c r="D130">
         <v>0.89</v>
@@ -3223,7 +3223,7 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>0.56000000000000005</v>
+        <v>1314.05</v>
       </c>
       <c r="D131">
         <v>0.93</v>
@@ -3246,7 +3246,7 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>0.53</v>
+        <v>1434.22</v>
       </c>
       <c r="D132">
         <v>0.99</v>
@@ -3266,7 +3266,7 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>0.53</v>
+        <v>1263.21</v>
       </c>
       <c r="D133">
         <v>0.82</v>
@@ -3289,7 +3289,7 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>0.69</v>
+        <v>1630.67</v>
       </c>
       <c r="D134">
         <v>1.1299999999999999</v>
@@ -3309,7 +3309,7 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>0.65</v>
+        <v>1642.86</v>
       </c>
       <c r="D135">
         <v>1.1299999999999999</v>
@@ -3332,7 +3332,7 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>0.51</v>
+        <v>1362.17</v>
       </c>
       <c r="D136">
         <v>0.9</v>
@@ -3352,7 +3352,7 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>0.46</v>
+        <v>1413.28</v>
       </c>
       <c r="D137">
         <v>0.91</v>
@@ -3375,7 +3375,7 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>0.69</v>
+        <v>1633.48</v>
       </c>
       <c r="D138">
         <v>1.0900000000000001</v>
@@ -3395,7 +3395,7 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>0.38</v>
+        <v>1176.5</v>
       </c>
       <c r="D139">
         <v>0.75</v>
@@ -3418,7 +3418,7 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>0.63</v>
+        <v>1662.75</v>
       </c>
       <c r="D140">
         <v>1.1200000000000001</v>
@@ -3438,7 +3438,7 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>0.56999999999999995</v>
+        <v>1778.37</v>
       </c>
       <c r="D141">
         <v>1.23</v>
@@ -3461,7 +3461,7 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>0.59</v>
+        <v>1673.22</v>
       </c>
       <c r="D142">
         <v>1.1299999999999999</v>
@@ -3481,7 +3481,7 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>0.35</v>
+        <v>1301.42</v>
       </c>
       <c r="D143">
         <v>0.76</v>
@@ -3504,7 +3504,7 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>0.57999999999999996</v>
+        <v>1802.65</v>
       </c>
       <c r="D144">
         <v>1.18</v>
@@ -3524,7 +3524,7 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>0.55000000000000004</v>
+        <v>1520.35</v>
       </c>
       <c r="D145">
         <v>0.99</v>
@@ -3547,7 +3547,7 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>0.65</v>
+        <v>1781.5</v>
       </c>
       <c r="D146">
         <v>1.1599999999999999</v>
@@ -3567,7 +3567,7 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>0.65</v>
+        <v>1938.22</v>
       </c>
       <c r="D147">
         <v>1.28</v>
@@ -3590,7 +3590,7 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>0.5</v>
+        <v>1678.25</v>
       </c>
       <c r="D148">
         <v>1.0900000000000001</v>
@@ -3610,7 +3610,7 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>0.43</v>
+        <v>1541.71</v>
       </c>
       <c r="D149">
         <v>0.94</v>
@@ -3633,7 +3633,7 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>0.6</v>
+        <v>1944.78</v>
       </c>
       <c r="D150">
         <v>1.28</v>
@@ -3653,7 +3653,7 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>0.34</v>
+        <v>1269.74</v>
       </c>
       <c r="D151">
         <v>0.79</v>
@@ -3676,7 +3676,7 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>0.54</v>
+        <v>1847.28</v>
       </c>
       <c r="D152">
         <v>1.17</v>
@@ -3696,7 +3696,7 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>0.63</v>
+        <v>2085.67</v>
       </c>
       <c r="D153">
         <v>1.39</v>
@@ -3719,7 +3719,7 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>0.66</v>
+        <v>1938.63</v>
       </c>
       <c r="D154">
         <v>1.2</v>
@@ -3739,7 +3739,7 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>0.45</v>
+        <v>1566.54</v>
       </c>
       <c r="D155">
         <v>0.93</v>
@@ -3762,7 +3762,7 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>0.64</v>
+        <v>1987.15</v>
       </c>
       <c r="D156">
         <v>1.26</v>
@@ -3782,7 +3782,7 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>0.44</v>
+        <v>1591.15</v>
       </c>
       <c r="D157">
         <v>1.03</v>
@@ -3805,7 +3805,7 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>0.52</v>
+        <v>1969.44</v>
       </c>
       <c r="D158">
         <v>1.35</v>
@@ -3825,7 +3825,7 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>0.59</v>
+        <v>2228.9699999999998</v>
       </c>
       <c r="D159">
         <v>1.6</v>
@@ -3848,7 +3848,7 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <v>0.51</v>
+        <v>1971.48</v>
       </c>
       <c r="D160">
         <v>1.57</v>
@@ -3868,7 +3868,7 @@
         <v>160</v>
       </c>
       <c r="C161">
-        <v>0.47</v>
+        <v>1816.56</v>
       </c>
       <c r="D161">
         <v>1.5</v>
@@ -3891,7 +3891,7 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <v>0.62</v>
+        <v>2231.04</v>
       </c>
       <c r="D162">
         <v>1.85</v>
@@ -3911,7 +3911,7 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <v>0.41</v>
+        <v>1405.29</v>
       </c>
       <c r="D163">
         <v>1.1299999999999999</v>
@@ -3934,7 +3934,7 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <v>0.62</v>
+        <v>2148.35</v>
       </c>
       <c r="D164">
         <v>1.9</v>
@@ -3954,7 +3954,7 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <v>0.7</v>
+        <v>2373.42</v>
       </c>
       <c r="D165">
         <v>2.11</v>
@@ -3977,7 +3977,7 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <v>0.7</v>
+        <v>2397</v>
       </c>
       <c r="D166">
         <v>2.11</v>
@@ -3997,7 +3997,7 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <v>0.55000000000000004</v>
+        <v>2049.4</v>
       </c>
       <c r="D167">
         <v>1.71</v>
@@ -4020,7 +4020,7 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <v>0.59</v>
+        <v>2299.98</v>
       </c>
       <c r="D168">
         <v>2.0099999999999998</v>
@@ -4040,7 +4040,7 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <v>0.44</v>
+        <v>1864.03</v>
       </c>
       <c r="D169">
         <v>1.53</v>
@@ -4063,7 +4063,7 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <v>0.46</v>
+        <v>2309.58</v>
       </c>
       <c r="D170">
         <v>1.96</v>
@@ -4083,7 +4083,7 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <v>0.61</v>
+        <v>2456.63</v>
       </c>
       <c r="D171">
         <v>2.11</v>
@@ -4106,7 +4106,7 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <v>0.57999999999999996</v>
+        <v>2365.79</v>
       </c>
       <c r="D172">
         <v>1.98</v>
@@ -4126,7 +4126,7 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <v>0.48</v>
+        <v>2018.72</v>
       </c>
       <c r="D173">
         <v>1.67</v>
@@ -4149,7 +4149,7 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <v>0.68</v>
+        <v>2498.67</v>
       </c>
       <c r="D174">
         <v>2.09</v>
@@ -4169,7 +4169,7 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>0.38</v>
+        <v>1635.91</v>
       </c>
       <c r="D175">
         <v>1.25</v>
@@ -4192,7 +4192,7 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <v>0.57999999999999996</v>
+        <v>2738.28</v>
       </c>
       <c r="D176">
         <v>2.29</v>
@@ -4212,7 +4212,7 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <v>0.62</v>
+        <v>2875.22</v>
       </c>
       <c r="D177">
         <v>2.4300000000000002</v>
@@ -4235,7 +4235,7 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <v>0.59</v>
+        <v>2613.9699999999998</v>
       </c>
       <c r="D178">
         <v>2.13</v>
@@ -4255,7 +4255,7 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <v>0.45</v>
+        <v>2040.24</v>
       </c>
       <c r="D179">
         <v>1.58</v>
@@ -4278,7 +4278,7 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <v>0.59</v>
+        <v>2459.9299999999998</v>
       </c>
       <c r="D180">
         <v>1.96</v>
@@ -4298,7 +4298,7 @@
         <v>180</v>
       </c>
       <c r="C181">
-        <v>0.52</v>
+        <v>2208.5700000000002</v>
       </c>
       <c r="D181">
         <v>1.74</v>
@@ -4321,7 +4321,7 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <v>0.62</v>
+        <v>2697.95</v>
       </c>
       <c r="D182">
         <v>2.2400000000000002</v>
@@ -4341,7 +4341,7 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <v>0.63</v>
+        <v>2838.09</v>
       </c>
       <c r="D183">
         <v>2.2799999999999998</v>
@@ -4364,7 +4364,7 @@
         <v>183</v>
       </c>
       <c r="C184">
-        <v>0.61</v>
+        <v>2577.17</v>
       </c>
       <c r="D184">
         <v>2.02</v>
@@ -4384,7 +4384,7 @@
         <v>184</v>
       </c>
       <c r="C185">
-        <v>0.44</v>
+        <v>2134.64</v>
       </c>
       <c r="D185">
         <v>1.62</v>
@@ -4407,7 +4407,7 @@
         <v>185</v>
       </c>
       <c r="C186">
-        <v>0.69</v>
+        <v>2771.79</v>
       </c>
       <c r="D186">
         <v>2.19</v>
@@ -4427,7 +4427,7 @@
         <v>186</v>
       </c>
       <c r="C187">
-        <v>0.28000000000000003</v>
+        <v>1520.29</v>
       </c>
       <c r="D187">
         <v>1.03</v>
@@ -4450,7 +4450,7 @@
         <v>187</v>
       </c>
       <c r="C188">
-        <v>0.64</v>
+        <v>3032.91</v>
       </c>
       <c r="D188">
         <v>2.41</v>
@@ -4470,7 +4470,7 @@
         <v>188</v>
       </c>
       <c r="C189">
-        <v>0.68</v>
+        <v>2920.05</v>
       </c>
       <c r="D189">
         <v>2.2799999999999998</v>
@@ -4493,7 +4493,7 @@
         <v>189</v>
       </c>
       <c r="C190">
-        <v>0.53</v>
+        <v>2689.58</v>
       </c>
       <c r="D190">
         <v>2.0499999999999998</v>
@@ -4513,7 +4513,7 @@
         <v>190</v>
       </c>
       <c r="C191">
-        <v>0.47</v>
+        <v>2651.33</v>
       </c>
       <c r="D191">
         <v>2.0499999999999998</v>
@@ -4536,7 +4536,7 @@
         <v>191</v>
       </c>
       <c r="C192">
-        <v>0.56999999999999995</v>
+        <v>2995.01</v>
       </c>
       <c r="D192">
         <v>2.39</v>
@@ -4556,7 +4556,7 @@
         <v>192</v>
       </c>
       <c r="C193">
-        <v>0.46</v>
+        <v>2406.84</v>
       </c>
       <c r="D193">
         <v>1.81</v>
@@ -4579,7 +4579,7 @@
         <v>193</v>
       </c>
       <c r="C194">
-        <v>0.57999999999999996</v>
+        <v>3042.39</v>
       </c>
       <c r="D194">
         <v>2.33</v>
@@ -4599,7 +4599,7 @@
         <v>194</v>
       </c>
       <c r="C195">
-        <v>0.63</v>
+        <v>3041.03</v>
       </c>
       <c r="D195">
         <v>2.42</v>
@@ -4622,7 +4622,7 @@
         <v>195</v>
       </c>
       <c r="C196">
-        <v>0.53</v>
+        <v>2959.56</v>
       </c>
       <c r="D196">
         <v>2.34</v>
@@ -4642,7 +4642,7 @@
         <v>196</v>
       </c>
       <c r="C197">
-        <v>0.52</v>
+        <v>2601.6799999999998</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -4665,7 +4665,7 @@
         <v>197</v>
       </c>
       <c r="C198">
-        <v>0.59</v>
+        <v>3176.06</v>
       </c>
       <c r="D198">
         <v>2.54</v>
@@ -4685,7 +4685,7 @@
         <v>198</v>
       </c>
       <c r="C199">
-        <v>0.36</v>
+        <v>2039.71</v>
       </c>
       <c r="D199">
         <v>1.53</v>
@@ -4708,7 +4708,7 @@
         <v>199</v>
       </c>
       <c r="C200">
-        <v>0.68</v>
+        <v>3287.35</v>
       </c>
       <c r="D200">
         <v>2.84</v>
